--- a/mail/ot.xlsx
+++ b/mail/ot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wei.wu\Desktop\code\PythonLab\mail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434E3ED1-5338-49A8-8DC3-D88D225A4C32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8469F42-39D2-474E-AF75-9369CBC89576}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>date</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>5/2/2021   18:30-21:00</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>5/2/2020   18:30-21:30</t>
   </si>
 </sst>
 </file>
@@ -367,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -402,6 +408,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
